--- a/SAPGuiDemo/Demo.xlsx
+++ b/SAPGuiDemo/Demo.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Peoples" sheetId="1" r:id="rId1"/>
-    <sheet name="Students" sheetId="2" r:id="rId2"/>
+    <sheet name="Laptops" sheetId="3" r:id="rId2"/>
+    <sheet name="Students" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,23 +56,44 @@
   <si>
     <t>Sid</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>MacBook</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Zbook</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -405,16 +427,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -436,7 +458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -455,6 +477,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -462,9 +532,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>2</v>
       </c>
@@ -501,7 +571,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
